--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,94</t>
+          <t>2,26; 6,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,07</t>
+          <t>0,66; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,48</t>
+          <t>4,79; 10,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,2</t>
+          <t>1,29; 7,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,34</t>
+          <t>0,97; 3,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,29</t>
+          <t>2,24; 6,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,31</t>
+          <t>5,03; 10,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,45</t>
+          <t>2,79; 9,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,08</t>
+          <t>1,88; 4,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,16</t>
+          <t>1,71; 3,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,17</t>
+          <t>5,48; 9,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,7</t>
+          <t>2,45; 6,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,28</t>
+          <t>5,22; 9,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,94</t>
+          <t>7,91; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,39</t>
+          <t>8,06; 13,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 20,43</t>
+          <t>11,61; 20,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,59</t>
+          <t>2,51; 5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,57</t>
+          <t>3,22; 6,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,67</t>
+          <t>5,53; 9,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,08</t>
+          <t>6,41; 11,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,84</t>
+          <t>4,38; 7,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,04</t>
+          <t>6,18; 9,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,7</t>
+          <t>7,38; 10,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,51</t>
+          <t>9,53; 14,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,46</t>
+          <t>4,48; 8,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,33</t>
+          <t>3,16; 6,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,66</t>
+          <t>8,54; 13,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,03</t>
+          <t>12,46; 18,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,37</t>
+          <t>1,3; 3,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,99</t>
+          <t>0,82; 2,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,17</t>
+          <t>3,14; 6,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,98</t>
+          <t>4,35; 7,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,45</t>
+          <t>3,1; 5,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,14</t>
+          <t>2,36; 4,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,24</t>
+          <t>6,35; 9,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,61</t>
+          <t>8,56; 12,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,65</t>
+          <t>4,14; 8,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,59</t>
+          <t>6,44; 11,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,8</t>
+          <t>10,25; 15,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,04</t>
+          <t>14,89; 22,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,04</t>
+          <t>3,1; 7,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,8</t>
+          <t>3,09; 7,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,63</t>
+          <t>3,85; 7,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,71</t>
+          <t>5,67; 8,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,99</t>
+          <t>4,11; 7,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,34</t>
+          <t>5,39; 8,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,9</t>
+          <t>7,44; 10,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 14,81</t>
+          <t>10,93; 14,97</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,76</t>
+          <t>4,74; 10,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,99</t>
+          <t>4,56; 10,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,02</t>
+          <t>8,87; 15,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,9</t>
+          <t>16,82; 22,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,61</t>
+          <t>6,02; 11,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,74</t>
+          <t>5,97; 11,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,97</t>
+          <t>12,0; 18,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,82</t>
+          <t>14,79; 20,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,28</t>
+          <t>6,07; 9,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,22</t>
+          <t>6,02; 9,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 15,99</t>
+          <t>11,06; 15,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 20,4</t>
+          <t>16,56; 20,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 17,04</t>
+          <t>11,32; 17,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,33</t>
+          <t>13,9; 20,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,58</t>
+          <t>17,45; 23,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,73</t>
+          <t>23,07; 28,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,51</t>
+          <t>24,68; 31,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,1; 34,53</t>
+          <t>27,66; 34,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,14</t>
+          <t>29,47; 36,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,26; 45,97</t>
+          <t>27,83; 45,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,45</t>
+          <t>19,94; 24,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,52</t>
+          <t>22,3; 27,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,21; 30,08</t>
+          <t>25,26; 30,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 37,42</t>
+          <t>25,88; 37,22</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,34; 8,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,46; 9,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,43; 13,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,2</t>
+          <t>16,33; 19,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,7; 9,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,99; 10,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,91; 14,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,58</t>
+          <t>15,63; 18,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,43; 8,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,45; 9,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,03; 13,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 18,58</t>
+          <t>16,51; 18,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,07</t>
+          <t>2,26; 5,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,14</t>
+          <t>0,66; 3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,33</t>
+          <t>4,73; 10,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,23</t>
+          <t>0,84; 3,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,18</t>
+          <t>2,14; 6,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,59</t>
+          <t>5,06; 10,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,07</t>
+          <t>1,88; 4,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,9</t>
+          <t>1,66; 3,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,18</t>
+          <t>5,59; 9,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,18</t>
+          <t>5,21; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,75</t>
+          <t>7,8; 12,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,2</t>
+          <t>8,16; 13,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,76</t>
+          <t>2,64; 5,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,94</t>
+          <t>3,19; 6,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,77</t>
+          <t>5,35; 10,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,06</t>
+          <t>4,45; 7,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,24</t>
+          <t>6,03; 9,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 10,73</t>
+          <t>7,39; 10,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,57</t>
+          <t>4,42; 8,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,48</t>
+          <t>3,12; 6,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 13,43</t>
+          <t>8,69; 13,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,47</t>
+          <t>1,17; 3,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,98</t>
+          <t>0,79; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,25</t>
+          <t>3,12; 6,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,31</t>
+          <t>3,1; 5,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,2</t>
+          <t>2,2; 4,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,49</t>
+          <t>6,39; 9,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,57</t>
+          <t>4,24; 8,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,31</t>
+          <t>6,34; 11,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 15,58</t>
+          <t>10,27; 16,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,2</t>
+          <t>3,09; 7,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,03</t>
+          <t>3,15; 7,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,43</t>
+          <t>3,76; 7,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,11</t>
+          <t>4,15; 7,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,3</t>
+          <t>5,31; 8,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,86</t>
+          <t>7,71; 11,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,08</t>
+          <t>4,63; 9,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,09</t>
+          <t>4,8; 10,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 15,05</t>
+          <t>8,8; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,76</t>
+          <t>6,36; 11,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,68</t>
+          <t>6,27; 11,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 18,61</t>
+          <t>12,26; 19,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,6</t>
+          <t>6,01; 9,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,93</t>
+          <t>6,15; 10,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,83</t>
+          <t>11,33; 15,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 17,69</t>
+          <t>11,0; 17,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,39</t>
+          <t>13,63; 20,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 23,78</t>
+          <t>17,69; 23,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,68; 31,65</t>
+          <t>24,74; 31,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,66; 34,52</t>
+          <t>27,15; 34,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,47; 36,54</t>
+          <t>29,51; 36,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 24,49</t>
+          <t>19,78; 24,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,3; 27,3</t>
+          <t>22,37; 27,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,26; 30,39</t>
+          <t>25,14; 30,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,24</t>
+          <t>6,4; 8,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,39</t>
+          <t>7,29; 9,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 13,71</t>
+          <t>11,51; 13,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,76</t>
+          <t>7,85; 9,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 10,95</t>
+          <t>8,95; 10,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,48</t>
+          <t>11,96; 14,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,74</t>
+          <t>7,4; 8,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 9,87</t>
+          <t>8,38; 9,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 13,72</t>
+          <t>12,06; 13,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,96</t>
+          <t>2,17; 5,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,11</t>
+          <t>0,59; 3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,42</t>
+          <t>4,92; 10,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,77</t>
+          <t>1,55; 8,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,21</t>
+          <t>0,81; 3,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,34</t>
+          <t>2,25; 6,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,3</t>
+          <t>5,03; 10,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,04</t>
+          <t>2,8; 9,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,23</t>
+          <t>1,75; 4,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,94</t>
+          <t>1,73; 4,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,43</t>
+          <t>5,38; 9,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,86</t>
+          <t>2,57; 6,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,04</t>
+          <t>5,23; 9,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 12,43</t>
+          <t>7,98; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,75</t>
+          <t>8,22; 13,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 20,33</t>
+          <t>11,78; 20,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,62</t>
+          <t>2,38; 5,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,75</t>
+          <t>3,07; 6,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 10,03</t>
+          <t>5,62; 9,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,98</t>
+          <t>6,33; 12,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,07</t>
+          <t>4,35; 6,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,33</t>
+          <t>5,92; 9,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,78</t>
+          <t>7,54; 10,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,5</t>
+          <t>9,52; 14,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,52</t>
+          <t>4,42; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,45</t>
+          <t>3,15; 6,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,95</t>
+          <t>8,68; 13,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,92</t>
+          <t>12,44; 19,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,39</t>
+          <t>1,14; 3,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,06</t>
+          <t>0,79; 2,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,21</t>
+          <t>3,04; 6,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,81</t>
+          <t>4,34; 7,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,43</t>
+          <t>3,06; 5,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,14</t>
+          <t>2,28; 4,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,63</t>
+          <t>6,3; 9,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,31</t>
+          <t>8,77; 12,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,77</t>
+          <t>4,12; 8,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,43</t>
+          <t>6,46; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 16,09</t>
+          <t>10,3; 15,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 22,88</t>
+          <t>14,48; 23,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,07</t>
+          <t>3,03; 7,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,06</t>
+          <t>3,16; 6,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,65</t>
+          <t>3,71; 7,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,74</t>
+          <t>5,7; 8,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,09</t>
+          <t>3,96; 6,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,42</t>
+          <t>5,14; 8,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,13</t>
+          <t>7,63; 10,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 14,97</t>
+          <t>11,07; 14,81</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,89</t>
+          <t>4,27; 9,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,08</t>
+          <t>4,79; 9,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,8; 15,21</t>
+          <t>8,91; 15,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,91</t>
+          <t>16,71; 22,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,92</t>
+          <t>6,03; 11,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,88</t>
+          <t>5,99; 11,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 19,05</t>
+          <t>12,25; 18,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,22</t>
+          <t>14,84; 19,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,82</t>
+          <t>6,14; 10,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,15</t>
+          <t>6,21; 10,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,91</t>
+          <t>11,16; 15,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 20,61</t>
+          <t>16,45; 20,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 17,24</t>
+          <t>11,01; 17,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 20,64</t>
+          <t>14,08; 20,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 23,83</t>
+          <t>17,44; 23,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,6</t>
+          <t>23,26; 28,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 31,71</t>
+          <t>24,69; 31,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,15; 34,46</t>
+          <t>28,1; 34,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,53</t>
+          <t>29,21; 37,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,83; 45,86</t>
+          <t>29,26; 45,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,78; 24,59</t>
+          <t>19,51; 24,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,31</t>
+          <t>22,48; 27,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,14; 30,02</t>
+          <t>25,21; 30,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,88; 37,22</t>
+          <t>27,39; 37,42</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,27</t>
+          <t>6,39; 8,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 9,42</t>
+          <t>7,45; 9,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,87</t>
+          <t>11,37; 13,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 19,41</t>
+          <t>16,52; 19,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 9,77</t>
+          <t>7,74; 9,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 10,96</t>
+          <t>8,95; 11,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,41</t>
+          <t>12,04; 14,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,53</t>
+          <t>15,71; 18,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,8</t>
+          <t>7,36; 8,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,38; 9,9</t>
+          <t>8,53; 9,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,79</t>
+          <t>12,0; 13,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,51; 18,59</t>
+          <t>16,56; 18,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,2</t>
+          <t>1,68; 10,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,45</t>
+          <t>2,54; 8,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,7</t>
+          <t>2,56; 7,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,51%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 20,43</t>
+          <t>12,06; 21,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,08</t>
+          <t>4,62; 10,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,51</t>
+          <t>8,41; 14,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,03</t>
+          <t>12,48; 19,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,98</t>
+          <t>3,9; 7,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,61</t>
+          <t>8,4; 12,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,04</t>
+          <t>6,86; 22,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,71</t>
+          <t>5,36; 8,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 14,81</t>
+          <t>7,28; 14,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,9</t>
+          <t>16,84; 23,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,82</t>
+          <t>14,69; 19,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>21,83%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 17,04</t>
+          <t>6,21; 13,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,33</t>
+          <t>8,07; 16,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,58</t>
+          <t>12,31; 20,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,73</t>
+          <t>18,5; 25,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,51</t>
+          <t>17,6; 26,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,1; 34,53</t>
+          <t>18,96; 28,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,14</t>
+          <t>20,71; 29,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,26; 45,97</t>
+          <t>8,11; 33,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 24,45</t>
+          <t>13,27; 18,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,52</t>
+          <t>15,66; 22,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,21; 30,08</t>
+          <t>17,54; 23,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 37,42</t>
+          <t>10,31; 28,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>46,17%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15,46; 26,33</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 28,28</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 31,45</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 35,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29,19; 40,51</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>32,09; 42,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35,41; 46,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>52,71; 59,02</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 32,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27,53; 35,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>30,93; 38,95</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43,17; 48,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,39; 8,3</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,45; 9,42</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>11,37; 13,79</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>16,52; 19,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 18,6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,74; 9,75</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>8,95; 11,05</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>12,04; 14,45</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 18,58</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 17,81</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>7,36; 8,75</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>8,53; 9,9</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>12,0; 13,69</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 18,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,94</t>
+          <t>2,32; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,07</t>
+          <t>0,63; 3,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,48</t>
+          <t>4,73; 10,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 10,59</t>
+          <t>1,58; 10,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,34</t>
+          <t>0,99; 3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,29</t>
+          <t>2,21; 6,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,31</t>
+          <t>5,06; 10,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,6</t>
+          <t>2,49; 8,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,08</t>
+          <t>1,84; 4,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,16</t>
+          <t>1,79; 4,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,17</t>
+          <t>5,52; 9,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,51</t>
+          <t>2,6; 7,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,28</t>
+          <t>5,01; 9,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,94</t>
+          <t>7,77; 12,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,39</t>
+          <t>8,22; 13,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 21,07</t>
+          <t>12,26; 21,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,59</t>
+          <t>2,49; 5,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,57</t>
+          <t>2,9; 6,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,67</t>
+          <t>5,65; 9,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,77</t>
+          <t>4,6; 11,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,84</t>
+          <t>4,41; 6,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,04</t>
+          <t>5,82; 8,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,7</t>
+          <t>7,58; 10,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,13</t>
+          <t>8,58; 14,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,46</t>
+          <t>4,35; 8,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,33</t>
+          <t>3,28; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,66</t>
+          <t>8,6; 13,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,06</t>
+          <t>12,06; 18,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,37</t>
+          <t>1,22; 3,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,99</t>
+          <t>0,81; 2,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,17</t>
+          <t>3,2; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,69</t>
+          <t>3,84; 7,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,45</t>
+          <t>3,09; 5,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,14</t>
+          <t>2,18; 4,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,24</t>
+          <t>6,32; 9,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,42</t>
+          <t>8,28; 12,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,65</t>
+          <t>4,11; 8,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,59</t>
+          <t>6,35; 11,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,8</t>
+          <t>10,42; 15,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 22,02</t>
+          <t>6,44; 21,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,04</t>
+          <t>3,07; 7,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,8</t>
+          <t>3,06; 6,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,63</t>
+          <t>3,75; 7,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,55</t>
+          <t>5,3; 8,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,99</t>
+          <t>4,06; 7,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,34</t>
+          <t>5,38; 8,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,9</t>
+          <t>7,48; 11,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 14,01</t>
+          <t>6,49; 14,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,76</t>
+          <t>4,54; 9,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,99</t>
+          <t>4,92; 10,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,02</t>
+          <t>8,88; 14,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 23,1</t>
+          <t>16,67; 23,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,61</t>
+          <t>6,39; 11,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,74</t>
+          <t>6,16; 11,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,97</t>
+          <t>12,38; 19,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,69; 19,65</t>
+          <t>14,48; 19,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,28</t>
+          <t>6,05; 9,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,22</t>
+          <t>6,17; 9,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 15,99</t>
+          <t>11,19; 15,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 20,4</t>
+          <t>16,8; 20,65</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,39</t>
+          <t>6,58; 13,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,73</t>
+          <t>8,82; 16,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 20,62</t>
+          <t>12,43; 20,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,2</t>
+          <t>18,8; 25,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,6; 26,13</t>
+          <t>17,65; 26,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,96; 28,78</t>
+          <t>19,6; 29,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,71; 29,62</t>
+          <t>20,52; 29,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 33,9</t>
+          <t>9,17; 34,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,88</t>
+          <t>13,53; 19,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,22</t>
+          <t>15,38; 21,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 23,76</t>
+          <t>17,75; 23,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 28,28</t>
+          <t>11,73; 28,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,46; 26,33</t>
+          <t>15,8; 26,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,28</t>
+          <t>17,42; 28,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,21; 31,45</t>
+          <t>21,54; 31,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,11; 35,94</t>
+          <t>27,19; 36,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,19; 40,51</t>
+          <t>28,64; 40,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,09; 42,61</t>
+          <t>32,88; 42,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,41; 46,36</t>
+          <t>35,2; 46,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52,71; 59,02</t>
+          <t>52,68; 59,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 32,99</t>
+          <t>24,96; 32,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,53; 35,6</t>
+          <t>27,7; 35,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,93; 38,95</t>
+          <t>30,96; 39,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,17; 48,63</t>
+          <t>43,26; 48,87</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,4; 8,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,36; 9,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,55; 13,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,6</t>
+          <t>12,92; 18,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,8; 9,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,9; 10,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,92; 14,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,49; 17,81</t>
+          <t>13,16; 17,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,35; 8,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,47; 9,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,02; 13,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,71</t>
+          <t>14,29; 17,84</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares unipersonales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18810</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30018</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16257</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8440</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16625</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28940</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15085</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27250</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23590</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58958</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31342</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11456; 29559</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2868; 13643</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19829; 42755</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6340; 43437</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4621; 16951</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9513; 27336</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20015; 40350</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7797; 26529</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17663; 40084</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15854; 36776</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45040; 76672</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18519; 52490</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51401</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>62551</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67680</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24300</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28125</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41735</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39990</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75701</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96524</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>104287</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>107670</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36858; 67328</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53377; 85632</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48547; 78092</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>51940; 89935</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15560; 36548</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17726; 39932</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31861; 55499</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23548; 56798</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59955; 94080</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75481; 115691</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>87420; 125523</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>80276; 132718</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39712</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31792</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73183</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>83029</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14415</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11422</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29449</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33343</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54127</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43214</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>102633</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>116372</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27792; 53916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22377; 43672</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57564; 91656</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>64685; 99379</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8404; 24196</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5762; 20547</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21144; 41589</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22718; 43790</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40991; 69593</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30389; 58335</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84084; 123213</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93374; 138574</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31677</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53065</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83424</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>132097</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24754</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29327</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35537</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49120</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>56431</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82392</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>118962</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>181217</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21360; 44725</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39013; 69969</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67298; 103168</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>57150; 191573</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15850; 36133</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18851; 41786</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24366; 49470</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37802; 60483</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41968; 73328</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66184; 103074</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>96937; 142620</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>103956; 224484</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26750</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55422</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>111632</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35259</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38662</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>76106</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>93351</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>62009</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68939</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>131528</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>204983</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17574; 38531</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21119; 43027</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>42440; 70913</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>93542; 130505</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25828; 47881</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27603; 51624</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61533; 95973</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>79338; 106327</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47841; 78445</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>54127; 87670</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>109034; 154529</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>186323; 229045</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27239</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>38029</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53598</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>80300</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>74865</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84576</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>94335</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>132880</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>102104</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>122605</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>147933</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>213180</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19238; 39398</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27309; 50886</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>41543; 67898</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>69232; 93994</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>60532; 89312</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>69369; 102865</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>77535; 112979</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55814; 207103</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>85993; 121023</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>102079; 141513</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>126381; 170486</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>114506; 275953</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>43060</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>56540</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>67898</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>88396</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>114099</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>145350</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>161895</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>238741</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>157159</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>201890</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>229794</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>327138</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33157; 55835</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43515; 70946</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>55357; 80775</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>76879; 102018</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>95625; 133898</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>127884; 166322</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>140846; 184685</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>224307; 252627</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>135749; 177845</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>176988; 228062</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>203471; 256336</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>306526; 346289</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>285066</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>426095</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>579391</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>296132</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>354087</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>467998</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>602510</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>534781</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>639153</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>894093</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1181902</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>209536; 267820</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>252379; 322286</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>391908; 467061</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>446849; 643924</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>263461; 331569</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>316856; 391205</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>422524; 510518</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>488579; 659073</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>489298; 577801</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>591395; 689537</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>834114; 953145</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1025000; 1279680</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>